--- a/SU - Suspension/Cost/SU_A0600.xlsx
+++ b/SU - Suspension/Cost/SU_A0600.xlsx
@@ -539,28 +539,27 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="21">
+  <numFmts count="20">
+    <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* \-??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="_(\$* #,##0.00_);_(\$* \(#,##0.00\);_(\$* \-??_);_(@_)"/>
     <numFmt numFmtId="166" formatCode="\$#,##0.00_);&quot;($&quot;#,##0.00\)"/>
     <numFmt numFmtId="167" formatCode="#,##0.0000"/>
     <numFmt numFmtId="168" formatCode="_(* #,##0.000_);_(* \(#,##0.000\);_(* \-??_);_(@_)"/>
-    <numFmt numFmtId="170" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00,;_-[$$-409]* \-??_ ;_-@_ "/>
-    <numFmt numFmtId="171" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="172" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="173" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
-    <numFmt numFmtId="174" formatCode="0.0000"/>
-    <numFmt numFmtId="178" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
-    <numFmt numFmtId="179" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
-    <numFmt numFmtId="182" formatCode="&quot;$&quot;#,##0.00"/>
-    <numFmt numFmtId="188" formatCode="0.0"/>
-    <numFmt numFmtId="192" formatCode="#,##0.000"/>
-    <numFmt numFmtId="199" formatCode="_(\$* #,##0.00_);_(\$* \(#,##0.000\);_(\$* \-??_);_(@_)"/>
-    <numFmt numFmtId="201" formatCode="_-* #,##0.000_-;\-* #,##0.000_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="203" formatCode="\$#,##0.00,;&quot;($&quot;#,##0.00\)"/>
-    <numFmt numFmtId="218" formatCode="0.00000000"/>
-    <numFmt numFmtId="220" formatCode="_-* #,##0.00000000\ _€_-;\-* #,##0.00000000\ _€_-;_-* &quot;-&quot;????????\ _€_-;_-@_-"/>
+    <numFmt numFmtId="169" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00,;_-[$$-409]* \-??_ ;_-@_ "/>
+    <numFmt numFmtId="170" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="171" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="172" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
+    <numFmt numFmtId="173" formatCode="0.0000"/>
+    <numFmt numFmtId="174" formatCode="&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="175" formatCode="0.0"/>
+    <numFmt numFmtId="176" formatCode="#,##0.000"/>
+    <numFmt numFmtId="177" formatCode="_(\$* #,##0.00_);_(\$* \(#,##0.000\);_(\$* \-??_);_(@_)"/>
+    <numFmt numFmtId="178" formatCode="_-* #,##0.000_-;\-* #,##0.000_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="179" formatCode="\$#,##0.00,;&quot;($&quot;#,##0.00\)"/>
+    <numFmt numFmtId="180" formatCode="0.00000000"/>
+    <numFmt numFmtId="181" formatCode="_-* #,##0.00000000\ _€_-;\-* #,##0.00000000\ _€_-;_-* &quot;-&quot;????????\ _€_-;_-@_-"/>
   </numFmts>
   <fonts count="28" x14ac:knownFonts="1">
     <font>
@@ -1312,12 +1311,12 @@
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="171" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="7" fillId="2" borderId="6">
+    <xf numFmtId="170" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="7" fillId="2" borderId="6">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="172" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="166" fontId="6" fillId="0" borderId="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1326,41 +1325,41 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="182" fontId="6" fillId="0" borderId="1">
+    <xf numFmtId="174" fontId="6" fillId="0" borderId="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="178" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="179" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="25" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="179" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="179" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="179" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="171" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="171" fontId="26" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="26" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="165" fontId="16" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="16" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="27" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
-    <xf numFmtId="203" fontId="16" fillId="0" borderId="36">
+    <xf numFmtId="179" fontId="16" fillId="0" borderId="36">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="188" fontId="6" fillId="0" borderId="1">
+    <xf numFmtId="175" fontId="6" fillId="0" borderId="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="189">
@@ -1371,7 +1370,7 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="172" fontId="12" fillId="0" borderId="7" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="171" fontId="12" fillId="0" borderId="7" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1381,11 +1380,11 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="172" fontId="9" fillId="0" borderId="0" xfId="5" applyFont="1"/>
+    <xf numFmtId="171" fontId="9" fillId="0" borderId="0" xfId="5" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="172" fontId="8" fillId="0" borderId="0" xfId="5" applyFont="1"/>
+    <xf numFmtId="171" fontId="8" fillId="0" borderId="0" xfId="5" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyProtection="1">
@@ -1435,14 +1434,14 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="172" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="171" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="13" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="172" fontId="13" fillId="0" borderId="8" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="171" fontId="13" fillId="0" borderId="8" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="4" borderId="9" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1493,7 +1492,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="170" fontId="5" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="5" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1511,11 +1510,11 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="14" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="13" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="173" fontId="5" fillId="0" borderId="16" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="173" fontId="12" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="172" fontId="5" fillId="0" borderId="16" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="172" fontId="12" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="174" fontId="5" fillId="0" borderId="16" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="173" fontId="5" fillId="0" borderId="16" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="4" fillId="7" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1554,18 +1553,18 @@
     <xf numFmtId="0" fontId="19" fillId="9" borderId="3" xfId="8" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="173" fontId="12" fillId="9" borderId="3" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="172" fontId="12" fillId="9" borderId="3" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="37" fontId="12" fillId="9" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="173" fontId="12" fillId="9" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="172" fontId="12" fillId="9" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="173" fontId="12" fillId="9" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="172" fontId="12" fillId="9" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="9" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1583,18 +1582,18 @@
     <xf numFmtId="0" fontId="19" fillId="10" borderId="3" xfId="8" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="173" fontId="12" fillId="10" borderId="3" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="172" fontId="12" fillId="10" borderId="3" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="37" fontId="12" fillId="10" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="173" fontId="12" fillId="10" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="172" fontId="12" fillId="10" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="173" fontId="12" fillId="10" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="172" fontId="12" fillId="10" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="10" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1605,8 +1604,8 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="220" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="218" fontId="5" fillId="0" borderId="3" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="181" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="180" fontId="5" fillId="0" borderId="3" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1664,7 +1663,7 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="32" xfId="28" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="22" fillId="12" borderId="33" xfId="28" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="22" fillId="12" borderId="34" xfId="28" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="199" fontId="22" fillId="12" borderId="31" xfId="28" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="22" fillId="12" borderId="31" xfId="28" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="31" xfId="28" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="24" fillId="0" borderId="31" xfId="28" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="11" fontId="24" fillId="0" borderId="31" xfId="28" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -1673,8 +1672,8 @@
     <xf numFmtId="0" fontId="22" fillId="12" borderId="2" xfId="28" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="192" fontId="24" fillId="0" borderId="31" xfId="28" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="201" fontId="24" fillId="0" borderId="31" xfId="28" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="24" fillId="0" borderId="31" xfId="28" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="178" fontId="24" fillId="0" borderId="31" xfId="28" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="Comma 2" xfId="5"/>
@@ -2323,7 +2322,7 @@
       <selection activeCell="H10" sqref="H10"/>
       <selection pane="topRight" activeCell="H10" sqref="H10"/>
       <selection pane="bottomLeft" activeCell="H10" sqref="H10"/>
-      <selection pane="bottomRight" activeCell="L3" sqref="L3"/>
+      <selection pane="bottomRight" activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -2499,13 +2498,16 @@
         <f>'SU A0600'!B3</f>
         <v>Suspension &amp; Shocks</v>
       </c>
-      <c r="C8" s="120" t="s">
-        <v>129</v>
+      <c r="C8" s="120" t="str">
+        <f>SU_0600_001</f>
+        <v>SU 0600 001</v>
       </c>
       <c r="D8" s="128" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="128"/>
+      <c r="E8" s="128" t="s">
+        <v>129</v>
+      </c>
       <c r="F8" s="129" t="s">
         <v>76</v>
       </c>
@@ -2544,13 +2546,16 @@
         <f>'SU A0600'!$B$3</f>
         <v>Suspension &amp; Shocks</v>
       </c>
-      <c r="C9" s="120" t="s">
-        <v>129</v>
+      <c r="C9" s="120" t="str">
+        <f>SU_0600_002</f>
+        <v>SU 0600 002</v>
       </c>
       <c r="D9" s="128" t="s">
         <v>11</v>
       </c>
-      <c r="E9" s="128"/>
+      <c r="E9" s="128" t="s">
+        <v>129</v>
+      </c>
       <c r="F9" s="129" t="s">
         <v>77</v>
       </c>
@@ -2589,13 +2594,16 @@
         <f>'SU A0600'!$B$3</f>
         <v>Suspension &amp; Shocks</v>
       </c>
-      <c r="C10" s="120" t="s">
-        <v>129</v>
+      <c r="C10" s="120" t="str">
+        <f>SU_0600_003</f>
+        <v>SU 0600 003</v>
       </c>
       <c r="D10" s="128" t="s">
         <v>11</v>
       </c>
-      <c r="E10" s="128"/>
+      <c r="E10" s="128" t="s">
+        <v>129</v>
+      </c>
       <c r="F10" s="129" t="s">
         <v>74</v>
       </c>
@@ -2634,13 +2642,16 @@
         <f>'SU A0600'!$B$3</f>
         <v>Suspension &amp; Shocks</v>
       </c>
-      <c r="C11" s="120" t="s">
-        <v>129</v>
+      <c r="C11" s="120" t="str">
+        <f>SU_0600_004</f>
+        <v>SU 0600 004</v>
       </c>
       <c r="D11" s="128" t="s">
         <v>11</v>
       </c>
-      <c r="E11" s="128"/>
+      <c r="E11" s="128" t="s">
+        <v>129</v>
+      </c>
       <c r="F11" s="129" t="s">
         <v>75</v>
       </c>
@@ -4955,7 +4966,7 @@
   <dimension ref="A1:O44"/>
   <sheetViews>
     <sheetView zoomScale="75" zoomScaleNormal="75" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6212,8 +6223,8 @@
   </sheetPr>
   <dimension ref="A2:N280"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="I26" sqref="I26"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10535,7 +10546,7 @@
   <dimension ref="A2:N19"/>
   <sheetViews>
     <sheetView topLeftCell="B4" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="K27" sqref="K27"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11028,7 +11039,7 @@
   <dimension ref="A1:P18"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11584,7 +11595,7 @@
   <dimension ref="A2:N20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I25" sqref="I25"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
